--- a/JavaWork/src/com/ams/work410/Work410.xlsx
+++ b/JavaWork/src/com/ams/work410/Work410.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="17565" windowHeight="5880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="★" sheetId="12" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="selectByTranDate" sheetId="10" r:id="rId3"/>
     <sheet name="addItemName" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="C1:H10"/>
 </workbook>
 </file>
 
@@ -555,8 +556,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,10 +869,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,7 +903,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1079,56 +1078,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="2.6640625" style="10"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="10"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="C3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="B5" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="C6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13">
       <c r="E10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13">
       <c r="F12" s="16">
         <v>10000001</v>
       </c>
@@ -1180,12 +1179,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13">
       <c r="E14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13">
       <c r="F15" s="11" t="s">
         <v>52</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13">
       <c r="F16" s="16">
         <v>10000002</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:13">
       <c r="F17" s="16">
         <v>10000003</v>
       </c>
@@ -1263,15 +1262,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:13">
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:13">
       <c r="E19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:13">
       <c r="F20" s="11" t="s">
         <v>52</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:13">
       <c r="F21" s="16">
         <v>10000001</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:13">
       <c r="F22" s="16">
         <v>10000002</v>
       </c>
@@ -1356,30 +1355,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.44140625" style="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1388,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1398,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1425,7 +1424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -1437,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1461,12 +1460,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="E11" s="4">
         <v>1</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="E12" s="4">
         <v>2</v>
       </c>
@@ -1525,7 +1524,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="E13" s="4">
         <v>3</v>
       </c>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="E14" s="4">
         <v>4</v>
       </c>
@@ -1561,7 +1560,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="E15" s="4">
         <v>5</v>
       </c>
@@ -1591,30 +1590,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.44140625" style="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1623,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1633,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -1660,7 +1659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1672,7 +1671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1696,12 +1695,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="E11" s="4">
         <v>1</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="E12" s="4">
         <v>2</v>
       </c>
@@ -1760,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="E13" s="4">
         <v>3</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="E14" s="4">
         <v>4</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="E15" s="4">
         <v>5</v>
       </c>
@@ -1814,7 +1813,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="E16" s="4">
         <v>6</v>
       </c>
@@ -1832,7 +1831,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:10">
       <c r="E17" s="4">
         <v>7</v>
       </c>
@@ -1850,7 +1849,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:10">
       <c r="E18" s="4">
         <v>8</v>
       </c>
@@ -1880,29 +1879,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.44140625" style="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1912,7 +1911,7 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1921,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -1948,7 +1947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="27">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1972,12 +1971,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="E10" s="4">
         <v>1</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
         <v>69</v>
@@ -2028,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="27">
       <c r="E12" s="4">
         <v>2</v>
       </c>
@@ -2043,7 +2042,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="E13" s="4">
         <v>3</v>
       </c>
@@ -2058,7 +2057,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="27">
       <c r="E14" s="4">
         <v>4</v>
       </c>

--- a/JavaWork/src/com/ams/work410/Work410.xlsx
+++ b/JavaWork/src/com/ams/work410/Work410.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="17565" windowHeight="5880" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="15840" windowHeight="6000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="★" sheetId="12" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="addItemName" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="C1:H10"/>
+  <oleSize ref="C1:H17"/>
 </workbook>
 </file>
 
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5"/>
@@ -2012,7 +2012,9 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>69</v>
       </c>
@@ -2029,7 +2031,7 @@
     </row>
     <row r="12" spans="1:10" ht="27">
       <c r="E12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>67</v>
@@ -2044,7 +2046,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>69</v>
@@ -2059,7 +2061,7 @@
     </row>
     <row r="14" spans="1:10" ht="27">
       <c r="E14" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>67</v>
